--- a/biology/Histoire de la zoologie et de la botanique/Casimir_Arvet-Touvet/Casimir_Arvet-Touvet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Casimir_Arvet-Touvet/Casimir_Arvet-Touvet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casimir Arvet-Touvet, né Jean Maurice Casimir Arvet-Touvet le 4 mars 1841 à Gières et mort le 4 mars 1913 dans la même commune, est un botaniste français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de viticulteur, il commence ses études au petit séminaire du Rondeau à Grenoble puis abandonne rapidement des études de droit pour seconder sa mère restée veuve à l'exploitation familiale. Botaniste sur son temps libre, il acquiert une grande connaissance de la flore du Dauphiné qu'il présente en 1871 dans un essai sur les plantes du Dauphiné.
 À partir de 1880, il consacrera ses études au genre Hieracium. Il deviendra l'un des meilleurs spécialistes mondiaux des épervières. En collaboration avec Gaston Gauthier (1841-1911), il étudiera les épervières pyrénéennes et de la péninsule Ibérique.
-Après la mort de ce dernier, il publie seul, en 1913, Hieraciorum praesertim Galliae et Hispanica systematicus[1].
+Après la mort de ce dernier, il publie seul, en 1913, Hieraciorum praesertim Galliae et Hispanica systematicus.
 Croyant, ses conceptions sont marquées par l'essentialisme à l'opposé du transformisme et de l'évolutionnisme. Il est l'auteur de nombreuses espèces du genre Hieracium et d'une espèce de Fabaceae : Oxytropis amethystea.
 </t>
         </is>
